--- a/xlsx/form_f_registo_assocs.xlsx
+++ b/xlsx/form_f_registo_assocs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_cesc_niassa\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE0638-75C0-4FA9-AFAE-A003FF169E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87857544-5F5E-45AF-91AB-77D5363F8C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="157">
   <si>
     <t>type</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>village_name</t>
-  </si>
-  <si>
-    <t>Outro povoado (não está na lista)</t>
   </si>
   <si>
     <t>list_name</t>
@@ -493,6 +490,9 @@
 Por favor deslizar para a frente para continuar.</t>
   </si>
   <si>
+    <t>"CESC Niassa"</t>
+  </si>
+  <si>
     <t>search('enum_names_cesc_niassa')</t>
   </si>
   <si>
@@ -500,9 +500,6 @@
   </si>
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/cesc_niassa/submission</t>
-  </si>
-  <si>
-    <t>"CESC Niassa"</t>
   </si>
 </sst>
 </file>
@@ -1849,10 +1846,10 @@
         <v>67</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1886,7 +1883,7 @@
         <v>76</v>
       </c>
       <c r="O9" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1897,7 +1894,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -1914,12 +1911,12 @@
         <v>30</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>80</v>
@@ -1945,7 +1942,7 @@
         <v>82</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L14" s="34" t="s">
         <v>75</v>
@@ -2131,10 +2128,10 @@
         <v>104</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I26" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>20</v>
@@ -2184,11 +2181,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,15 +2339,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="46">
-        <v>1</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>107</v>
-      </c>
+      <c r="A16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
@@ -2359,24 +2350,24 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2399,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>1</v>
@@ -2481,1597 +2472,1597 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B332" s="49"/>
       <c r="C332" s="49"/>
@@ -4080,7 +4071,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B333" s="49"/>
       <c r="C333" s="49"/>
@@ -4089,7 +4080,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B334" s="49"/>
       <c r="C334" s="49"/>
@@ -4098,7 +4089,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B335" s="49"/>
       <c r="C335" s="49"/>
@@ -4107,7 +4098,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B336" s="49"/>
       <c r="C336" s="49"/>
@@ -4116,7 +4107,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B337" s="49"/>
       <c r="C337" s="49"/>
@@ -4125,7 +4116,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B338" s="49"/>
       <c r="C338" s="49"/>
@@ -4134,7 +4125,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B339" s="49"/>
       <c r="C339" s="49"/>
@@ -4143,7 +4134,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B340" s="49"/>
       <c r="C340" s="49"/>
@@ -4152,7 +4143,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B341" s="49"/>
       <c r="C341" s="49"/>
@@ -4161,7 +4152,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B342" s="49"/>
       <c r="C342" s="49"/>
@@ -4170,7 +4161,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B343" s="49"/>
       <c r="C343" s="49"/>
@@ -4179,7 +4170,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B344" s="49"/>
       <c r="C344" s="49"/>
@@ -4188,7 +4179,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B345" s="49"/>
       <c r="C345" s="49"/>
@@ -4197,7 +4188,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B346" s="49"/>
       <c r="C346" s="49"/>
@@ -4206,7 +4197,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B347" s="49"/>
       <c r="C347" s="49"/>
@@ -4215,7 +4206,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B348" s="49"/>
       <c r="C348" s="49"/>
@@ -4224,7 +4215,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B349" s="49"/>
       <c r="C349" s="49"/>
@@ -4233,7 +4224,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B350" s="49"/>
       <c r="C350" s="49"/>
@@ -4242,7 +4233,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B351" s="49"/>
       <c r="C351" s="49"/>
@@ -4251,7 +4242,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B352" s="49"/>
       <c r="C352" s="49"/>
@@ -4260,7 +4251,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B353" s="49"/>
       <c r="C353" s="49"/>
@@ -4269,7 +4260,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B354" s="49"/>
       <c r="C354" s="49"/>
@@ -4278,7 +4269,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B355" s="49"/>
       <c r="C355" s="49"/>
@@ -4287,7 +4278,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B356" s="49"/>
       <c r="C356" s="49"/>
@@ -4296,7 +4287,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B357" s="49"/>
       <c r="C357" s="49"/>
@@ -4305,7 +4296,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B358" s="49"/>
       <c r="C358" s="49"/>
@@ -4314,7 +4305,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B359" s="49"/>
       <c r="C359" s="49"/>
@@ -4323,7 +4314,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B360" s="49"/>
       <c r="C360" s="49"/>
@@ -4332,7 +4323,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B361" s="49"/>
       <c r="C361" s="49"/>
@@ -4341,7 +4332,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B362" s="49"/>
       <c r="C362" s="49"/>
@@ -4350,7 +4341,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B363" s="49"/>
       <c r="C363" s="49"/>
@@ -4359,7 +4350,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B364" s="49"/>
       <c r="C364" s="49"/>
@@ -4368,7 +4359,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B365" s="49"/>
       <c r="C365" s="49"/>
@@ -4377,7 +4368,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B366" s="49"/>
       <c r="C366" s="49"/>
@@ -4386,7 +4377,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B367" s="49"/>
       <c r="C367" s="49"/>
@@ -4395,7 +4386,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B368" s="49"/>
       <c r="C368" s="49"/>
@@ -4404,7 +4395,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B369" s="49"/>
       <c r="C369" s="49"/>
@@ -4413,7 +4404,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B370" s="49"/>
       <c r="C370" s="49"/>
@@ -4422,7 +4413,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B371" s="49"/>
       <c r="C371" s="49"/>
@@ -4431,7 +4422,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B372" s="49"/>
       <c r="C372" s="49"/>
@@ -4440,7 +4431,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B373" s="49"/>
       <c r="C373" s="49"/>
@@ -4449,7 +4440,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B374" s="49"/>
       <c r="C374" s="49"/>
@@ -4458,7 +4449,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B375" s="49"/>
       <c r="C375" s="49"/>
@@ -4467,7 +4458,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B376" s="49"/>
       <c r="C376" s="49"/>
@@ -4476,7 +4467,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B377" s="49"/>
       <c r="C377" s="49"/>
@@ -4485,1050 +4476,1050 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B584" s="50"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B585" s="50"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B586" s="50"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B587" s="50"/>
     </row>
@@ -5537,19 +5528,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B589" s="50"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B590" s="50"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B591" s="50"/>
     </row>
@@ -5558,13 +5549,13 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B593" s="50"/>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B594" s="50"/>
     </row>
@@ -5573,67 +5564,67 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B596" s="50"/>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B597" s="50"/>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B598" s="50"/>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B599" s="50"/>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B600" s="50"/>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B601" s="50"/>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B602" s="50"/>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B603" s="50"/>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B604" s="50"/>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B605" s="50"/>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B606" s="50"/>
     </row>
@@ -5642,13 +5633,13 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B608" s="50"/>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B609" s="50"/>
     </row>
@@ -5657,25 +5648,25 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B611" s="50"/>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B612" s="50"/>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B613" s="50"/>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B614" s="50"/>
     </row>
@@ -5684,31 +5675,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B616" s="50"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B617" s="50"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B618" s="50"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B619" s="50"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B620" s="50"/>
     </row>
@@ -5717,131 +5708,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B622" s="50"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B623" s="50"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B626" s="50"/>
       <c r="C626" s="51"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B627" s="50"/>
       <c r="C627" s="51"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B628" s="50"/>
       <c r="C628" s="51"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B629" s="50"/>
       <c r="C629" s="51"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B630" s="50"/>
       <c r="C630" s="51"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B631" s="50"/>
       <c r="C631" s="51"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B632" s="50"/>
       <c r="C632" s="51"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B633" s="50"/>
       <c r="C633" s="51"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B634" s="50"/>
       <c r="C634" s="51"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B635" s="50"/>
       <c r="C635" s="51"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B636" s="50"/>
       <c r="C636" s="51"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B637" s="50"/>
       <c r="C637" s="51"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B638" s="50"/>
       <c r="C638" s="51"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B639" s="50"/>
       <c r="C639" s="51"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B640" s="50"/>
       <c r="C640" s="51"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B641" s="50"/>
       <c r="C641" s="51"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B642" s="50"/>
       <c r="C642" s="51"/>
@@ -5853,168 +5844,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B644" s="52"/>
       <c r="C644" s="51"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B645" s="52"/>
       <c r="C645" s="51"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B647" s="50"/>
       <c r="C647" s="51"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B648" s="50"/>
       <c r="C648" s="51"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B649" s="50"/>
       <c r="C649" s="51"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B650" s="50"/>
       <c r="C650" s="51"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B651" s="50"/>
       <c r="C651" s="51"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B652" s="50"/>
       <c r="C652" s="51"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B653" s="50"/>
       <c r="C653" s="51"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B654" s="50"/>
       <c r="C654" s="51"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B655" s="50"/>
       <c r="C655" s="51"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B656" s="50"/>
       <c r="C656" s="51"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B657" s="50"/>
       <c r="C657" s="51"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B658" s="50"/>
       <c r="C658" s="51"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B659" s="50"/>
       <c r="C659" s="51"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B660" s="50"/>
       <c r="C660" s="51"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B661" s="50"/>
       <c r="C661" s="51"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B662" s="50"/>
       <c r="C662" s="51"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B663" s="50"/>
       <c r="C663" s="51"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B664" s="50"/>
       <c r="C664" s="51"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B665" s="50"/>
       <c r="C665" s="51"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B668" s="50"/>
       <c r="C668" s="51"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B669" s="50"/>
       <c r="C669" s="51"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B670" s="50"/>
       <c r="C670" s="51"/>
@@ -6031,483 +6022,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B673" s="50"/>
       <c r="C673" s="51"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B674" s="50"/>
       <c r="C674" s="51"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B675" s="50"/>
       <c r="C675" s="51"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B676" s="50"/>
       <c r="C676" s="51"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B677" s="50"/>
       <c r="C677" s="51"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B678" s="50"/>
       <c r="C678" s="51"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B679" s="50"/>
       <c r="C679" s="51"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B680" s="50"/>
       <c r="C680" s="51"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B681" s="50"/>
       <c r="C681" s="51"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B682" s="50"/>
       <c r="C682" s="51"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B684" s="50"/>
       <c r="C684" s="51"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B685" s="50"/>
       <c r="C685" s="51"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B686" s="50"/>
       <c r="C686" s="51"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B687" s="50"/>
       <c r="C687" s="51"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B688" s="50"/>
       <c r="C688" s="51"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B689" s="50"/>
       <c r="C689" s="51"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B690" s="50"/>
       <c r="C690" s="51"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B691" s="50"/>
       <c r="C691" s="51"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B692" s="50"/>
       <c r="C692" s="51"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B693" s="50"/>
       <c r="C693" s="51"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B694" s="50"/>
       <c r="C694" s="51"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B696" s="50"/>
       <c r="C696" s="51"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B697" s="50"/>
       <c r="C697" s="51"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B698" s="50"/>
       <c r="C698" s="51"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B699" s="50"/>
       <c r="C699" s="51"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B700" s="50"/>
       <c r="C700" s="51"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B701" s="50"/>
       <c r="C701" s="51"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B702" s="50"/>
       <c r="C702" s="51"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B703" s="50"/>
       <c r="C703" s="51"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B704" s="50"/>
       <c r="C704" s="51"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B705" s="50"/>
       <c r="C705" s="51"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B706" s="50"/>
       <c r="C706" s="51"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B707" s="50"/>
       <c r="C707" s="51"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B709" s="50"/>
       <c r="C709" s="51"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B710" s="50"/>
       <c r="C710" s="51"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B711" s="50"/>
       <c r="C711" s="51"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B712" s="50"/>
       <c r="C712" s="51"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B714" s="50"/>
       <c r="C714" s="51"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B715" s="50"/>
       <c r="C715" s="51"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B716" s="50"/>
       <c r="C716" s="51"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B717" s="50"/>
       <c r="C717" s="51"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B718" s="50"/>
       <c r="C718" s="51"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B719" s="50"/>
       <c r="C719" s="51"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B720" s="50"/>
       <c r="C720" s="51"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B721" s="50"/>
       <c r="C721" s="51"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B722" s="50"/>
       <c r="C722" s="51"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B723" s="50"/>
       <c r="C723" s="51"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B724" s="50"/>
       <c r="C724" s="51"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B725" s="50"/>
       <c r="C725" s="51"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B726" s="50"/>
       <c r="C726" s="51"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B727" s="50"/>
       <c r="C727" s="51"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B728" s="50"/>
       <c r="C728" s="51"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B729" s="50"/>
       <c r="C729" s="51"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B730" s="50"/>
       <c r="C730" s="51"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B731" s="50"/>
       <c r="C731" s="51"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B732" s="50"/>
       <c r="C732" s="51"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B733" s="50"/>
       <c r="C733" s="51"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B734" s="50"/>
       <c r="C734" s="51"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B735" s="50"/>
       <c r="C735" s="51"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B736" s="50"/>
       <c r="C736" s="51"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B737" s="50"/>
       <c r="C737" s="51"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B738" s="50"/>
       <c r="C738" s="51"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B739" s="50"/>
       <c r="C739" s="51"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B740" s="50"/>
       <c r="C740" s="51"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B742" s="50"/>
       <c r="C742" s="51"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B743" s="50"/>
       <c r="C743" s="51"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B744" s="50"/>
       <c r="C744" s="51"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B745" s="50"/>
       <c r="C745" s="51"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B746" s="50"/>
       <c r="C746" s="51"/>
@@ -6519,63 +6510,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B748" s="50"/>
       <c r="C748" s="51"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B749" s="50"/>
       <c r="C749" s="51"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B750" s="50"/>
       <c r="C750" s="51"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B751" s="50"/>
       <c r="C751" s="51"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B752" s="50"/>
       <c r="C752" s="51"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B753" s="50"/>
       <c r="C753" s="51"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B754" s="50"/>
       <c r="C754" s="51"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B755" s="50"/>
       <c r="C755" s="51"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B756" s="50"/>
       <c r="C756" s="51"/>
@@ -6587,112 +6578,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B758" s="50"/>
       <c r="C758" s="51"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B759" s="50"/>
       <c r="C759" s="51"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B760" s="50"/>
       <c r="C760" s="51"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B761" s="50"/>
       <c r="C761" s="51"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B762" s="50"/>
       <c r="C762" s="51"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B763" s="50"/>
       <c r="C763" s="51"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B764" s="50"/>
       <c r="C764" s="51"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B765" s="50"/>
       <c r="C765" s="51"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B766" s="50"/>
       <c r="C766" s="51"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B767" s="50"/>
       <c r="C767" s="51"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B768" s="50"/>
       <c r="C768" s="51"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B769" s="50"/>
       <c r="C769" s="51"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B770" s="50"/>
       <c r="C770" s="51"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B771" s="50"/>
       <c r="C771" s="51"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B772" s="50"/>
       <c r="C772" s="51"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B773" s="50"/>
       <c r="C773" s="51"/>
@@ -6704,147 +6695,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B775" s="50"/>
       <c r="C775" s="51"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B776" s="50"/>
       <c r="C776" s="51"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B777" s="50"/>
       <c r="C777" s="51"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B778" s="50"/>
       <c r="C778" s="51"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B779" s="50"/>
       <c r="C779" s="51"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B780" s="50"/>
       <c r="C780" s="51"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B781" s="50"/>
       <c r="C781" s="51"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B782" s="50"/>
       <c r="C782" s="51"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B783" s="50"/>
       <c r="C783" s="51"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B784" s="50"/>
       <c r="C784" s="51"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B785" s="50"/>
       <c r="C785" s="51"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B786" s="50"/>
       <c r="C786" s="51"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B787" s="50"/>
       <c r="C787" s="51"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B788" s="50"/>
       <c r="C788" s="51"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B789" s="50"/>
       <c r="C789" s="51"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B790" s="50"/>
       <c r="C790" s="51"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B791" s="50"/>
       <c r="C791" s="51"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B792" s="50"/>
       <c r="C792" s="51"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B793" s="50"/>
       <c r="C793" s="51"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B794" s="50"/>
       <c r="C794" s="51"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B795" s="50"/>
       <c r="C795" s="51"/>
@@ -6856,14 +6847,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B797" s="50"/>
       <c r="C797" s="51"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B798" s="50"/>
       <c r="C798" s="51"/>
@@ -6875,21 +6866,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B800" s="50"/>
       <c r="C800" s="51"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B801" s="50"/>
       <c r="C801" s="51"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B803" s="50"/>
       <c r="C803" s="51"/>
@@ -6899,7 +6890,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B804" s="50"/>
       <c r="C804" s="51"/>
@@ -6909,7 +6900,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B805" s="50"/>
       <c r="C805" s="51"/>
@@ -6919,7 +6910,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B806" s="50"/>
       <c r="C806" s="51"/>
@@ -6929,7 +6920,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B807" s="50"/>
       <c r="C807" s="51"/>
@@ -6939,7 +6930,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B808" s="50"/>
       <c r="C808" s="51"/>
@@ -6949,7 +6940,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B809" s="50"/>
       <c r="C809" s="51"/>
@@ -6959,7 +6950,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B810" s="50"/>
       <c r="C810" s="51"/>
@@ -6969,7 +6960,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B811" s="50"/>
       <c r="C811" s="51"/>
@@ -6979,7 +6970,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B812" s="50"/>
       <c r="C812" s="51"/>
@@ -6989,182 +6980,182 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B814" s="50"/>
       <c r="C814" s="51"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B815" s="50"/>
       <c r="C815" s="51"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B816" s="50"/>
       <c r="C816" s="51"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B817" s="50"/>
       <c r="C817" s="51"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B818" s="50"/>
       <c r="C818" s="51"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B819" s="50"/>
       <c r="C819" s="51"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B820" s="50"/>
       <c r="C820" s="51"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B822" s="50"/>
       <c r="C822" s="51"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B823" s="50"/>
       <c r="C823" s="51"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B824" s="50"/>
       <c r="C824" s="51"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B825" s="50"/>
       <c r="C825" s="51"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B826" s="50"/>
       <c r="C826" s="51"/>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B828" s="50"/>
       <c r="C828" s="53"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B829" s="50"/>
       <c r="C829" s="51"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B830" s="50"/>
       <c r="C830" s="51"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B831" s="50"/>
       <c r="C831" s="51"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B832" s="50"/>
       <c r="C832" s="51"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B833" s="50"/>
       <c r="C833" s="51"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B834" s="50"/>
       <c r="C834" s="51"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B835" s="50"/>
       <c r="C835" s="51"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B837" s="50"/>
       <c r="C837" s="53"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B838" s="50"/>
       <c r="C838" s="51"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B839" s="50"/>
       <c r="C839" s="51"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B840" s="50"/>
       <c r="C840" s="51"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B842" s="50"/>
       <c r="C842" s="51"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B843" s="50"/>
       <c r="C843" s="51"/>
@@ -7179,8 +7170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7204,7 +7195,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>21</v>
@@ -7212,13 +7203,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="54">
-        <v>202009211</v>
+        <v>202101081</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>156</v>
